--- a/Table 2.xlsx
+++ b/Table 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
+    <workbookView xWindow="820" yWindow="0" windowWidth="20560" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,15 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC3</t>
-  </si>
   <si>
     <t>Standard deviation</t>
   </si>
@@ -100,15 +91,24 @@
       <t xml:space="preserve"> Summary statistics and loadings for PC 1 to PC 3</t>
     </r>
   </si>
+  <si>
+    <t>PC 3</t>
+  </si>
+  <si>
+    <t>PC 2</t>
+  </si>
+  <si>
+    <t>PC 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +129,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -153,7 +160,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,10 +168,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -172,20 +179,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,269 +526,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>2</v>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>3.5903999999999998</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>1.4903</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.98541999999999996</v>
+        <v>9.8290000000000002E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>3.5580000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>0.74370000000000003</v>
+        <v>0.4335</v>
       </c>
       <c r="C4" s="2">
-        <v>0.12809999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.602E-2</v>
+        <v>0.36693999999999999</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4.8090000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>0.74370000000000003</v>
+        <v>0.4335</v>
       </c>
       <c r="C5" s="2">
-        <v>0.87180000000000002</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.92784999999999995</v>
+        <v>0.80042999999999997</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.84852000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>12.890684159999999</v>
+        <v>1.14142107E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>2.2210854499999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.97105965999999999</v>
+        <v>9.6616741999999995E-3</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.2661556999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.73815434599999996</v>
+        <v>-0.15344339000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>-0.60741183099999996</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.28452124000000001</v>
+        <v>8.7571570000000001E-2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-3.5161539999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>-0.268510992</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-0.33043439000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>0.18676284500000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-0.28795809999999999</v>
+        <v>9.5442550000000001E-2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4.254169E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>-0.36066087499999999</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="8">
+        <v>-0.30862690999999998</v>
       </c>
       <c r="C11" s="2">
-        <v>0.19429418600000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-0.60505299000000001</v>
+        <v>0.17809707</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-6.934506E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>-9.6122974E-2</v>
+        <v>-0.22861345999999999</v>
       </c>
       <c r="C12" s="2">
-        <v>4.9862415E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-3.1754310000000001E-2</v>
+        <v>0.18198518999999999</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.22200776</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>-7.4239465000000004E-2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>9.0143060999999997E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-0.10726692</v>
+        <v>-0.28565314000000003</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.30752330999999999</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.24646095000000001</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>-3.0802126999999999E-2</v>
+        <v>-1.959058E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>-2.6141306E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>-1.332585E-2</v>
+        <v>0.13598193</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-0.16670878</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-8.3965392999999999E-2</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>-0.3316656</v>
       </c>
       <c r="C15" s="2">
-        <v>4.3638101999999998E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>-0.12726245</v>
+        <v>0.15925926000000001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-0.71135155000000005</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2">
-        <v>-0.382153515</v>
+        <v>-0.26004084</v>
       </c>
       <c r="C16" s="2">
-        <v>0.72812733100000004</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.55630151000000005</v>
+        <v>0.17221756999999999</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.57800275000000001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.28106832300000001</v>
+        <v>-0.18110367999999999</v>
       </c>
       <c r="C17" s="2">
-        <v>0.11759776</v>
-      </c>
-      <c r="D17" s="2">
-        <v>-0.35144201000000003</v>
+        <v>0.19671251000000001</v>
+      </c>
+      <c r="D17" s="7">
+        <v>-4.8575159999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
-        <v>-7.1673502E-2</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="8">
+        <v>-0.43704823999999998</v>
       </c>
       <c r="C18" s="2">
-        <v>3.4879093999999999E-2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>-8.7791949999999994E-2</v>
+        <v>9.6392309999999995E-2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>-9.1016399999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7">
-        <v>5.0850230000000001E-3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2.3233709999999999E-3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>-2.1460369999999999E-2</v>
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.48614712999999998</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.83804140999999999</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-5.9758970000000002E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Table 2.xlsx
+++ b/Table 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="20560" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="15680" yWindow="880" windowWidth="20560" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Standard deviation</t>
   </si>
@@ -33,40 +33,16 @@
     <t>Eigenvalues</t>
   </si>
   <si>
-    <t>Loadings</t>
-  </si>
-  <si>
-    <t>SVL</t>
-  </si>
-  <si>
-    <t>HL</t>
-  </si>
-  <si>
-    <t>HW</t>
-  </si>
-  <si>
-    <t>SNL</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>IOD</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>MTTL</t>
-  </si>
-  <si>
-    <t>Fin3DW</t>
-  </si>
-  <si>
-    <t>TBL</t>
+    <t>PC 3</t>
+  </si>
+  <si>
+    <t>PC 2</t>
+  </si>
+  <si>
+    <t>PC 1</t>
+  </si>
+  <si>
+    <t>PC 4</t>
   </si>
   <si>
     <r>
@@ -88,25 +64,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Summary statistics and loadings for PC 1 to PC 3</t>
+      <t xml:space="preserve"> Summary statistics and loadings for PC 1 to PC 4</t>
     </r>
   </si>
   <si>
-    <t>PC 3</t>
-  </si>
-  <si>
-    <t>PC 2</t>
-  </si>
-  <si>
-    <t>PC 1</t>
+    <t>adjHL</t>
+  </si>
+  <si>
+    <t>adjHW</t>
+  </si>
+  <si>
+    <t>adjSNL</t>
+  </si>
+  <si>
+    <t>adjIND</t>
+  </si>
+  <si>
+    <t>adjED</t>
+  </si>
+  <si>
+    <t>adjFL</t>
+  </si>
+  <si>
+    <t>adjTBL</t>
+  </si>
+  <si>
+    <t>adjMTTL</t>
+  </si>
+  <si>
+    <t>adjFin3DW</t>
+  </si>
+  <si>
+    <t>Loadings:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -179,23 +177,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B9" sqref="B9:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -538,249 +541,275 @@
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="4"/>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="15" customFormat="1">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.10680000000000001</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.8290000000000002E-2</v>
-      </c>
-      <c r="D3" s="7">
-        <v>3.5580000000000001E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="15">
+        <v>0.10214762251906701</v>
+      </c>
+      <c r="C3" s="15">
+        <v>8.5697363959815198E-2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>4.56131794188053E-2</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3.4823839223270397E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.4335</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.36693999999999999</v>
-      </c>
-      <c r="D4" s="7">
-        <v>4.8090000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4">
+        <v>0.44001000000000001</v>
+      </c>
+      <c r="C4">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="D4">
+        <v>8.7739999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.1139999999999998E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.4335</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.80042999999999997</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.84852000000000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="B5">
+        <v>0.44001000000000001</v>
+      </c>
+      <c r="C5">
+        <v>0.74970000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.83743999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.88858000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="15" customFormat="1">
+      <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>1.14142107E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.6616741999999995E-3</v>
-      </c>
-      <c r="D6" s="7">
-        <v>1.2661556999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" s="14">
+        <v>1.04341368E-2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>7.3440381999999998E-3</v>
+      </c>
+      <c r="D6" s="16">
+        <v>2.0805620999999998E-3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1.2126998000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-0.15344339000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>8.7571570000000001E-2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>-3.5161539999999998E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="8">
-        <v>-0.33043439000000002</v>
-      </c>
-      <c r="C10" s="2">
-        <v>9.5442550000000001E-2</v>
-      </c>
-      <c r="D10" s="7">
-        <v>4.254169E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="8">
-        <v>-0.30862690999999998</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.17809707</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-6.934506E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-0.22861345999999999</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.18198518999999999</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.22200776</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
-        <v>-0.28565314000000003</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.30752330999999999</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0.24646095000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="B9">
+        <v>-0.23215463122223301</v>
+      </c>
+      <c r="C9">
+        <v>0.31895557515244499</v>
+      </c>
+      <c r="D9">
+        <v>-7.9920553557438101E-2</v>
+      </c>
+      <c r="E9">
+        <v>0.11306793907014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
-        <v>-1.959058E-2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.13598193</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-0.16670878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="B10">
+        <v>-0.160962695127494</v>
+      </c>
+      <c r="C10">
+        <v>0.33459569581998899</v>
+      </c>
+      <c r="D10">
+        <v>-1.4410692490899E-2</v>
+      </c>
+      <c r="E10">
+        <v>-2.1008316181107801E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8">
-        <v>-0.3316656</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.15925926000000001</v>
-      </c>
-      <c r="D15" s="7">
-        <v>-0.71135155000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="B11">
+        <v>-1.23418067625705E-3</v>
+      </c>
+      <c r="C11">
+        <v>0.13640366275383201</v>
+      </c>
+      <c r="D11">
+        <v>-0.26913888776085498</v>
+      </c>
+      <c r="E11">
+        <v>-0.300387076522598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
-        <v>-0.26004084</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.17221756999999999</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.57800275000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="B12">
+        <v>9.4830958037811792E-3</v>
+      </c>
+      <c r="C12">
+        <v>0.33224979241373997</v>
+      </c>
+      <c r="D12">
+        <v>-0.58270243562787805</v>
+      </c>
+      <c r="E12">
+        <v>-9.2146668429806899E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>-0.220479010076125</v>
+      </c>
+      <c r="C13">
+        <v>0.42473123958148401</v>
+      </c>
+      <c r="D13">
+        <v>0.18707226414993899</v>
+      </c>
+      <c r="E13">
+        <v>0.74806378721428701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>-8.3318512534578004E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.255246672664388</v>
+      </c>
+      <c r="D14">
+        <v>-0.41757403697864898</v>
+      </c>
+      <c r="E14">
+        <v>-5.7202047564268201E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>-0.18110367999999999</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.19671251000000001</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-4.8575159999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8">
-        <v>-0.43704823999999998</v>
-      </c>
-      <c r="C18" s="2">
-        <v>9.6392309999999995E-2</v>
-      </c>
-      <c r="D18" s="7">
-        <v>-9.1016399999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.48614712999999998</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.83804140999999999</v>
-      </c>
-      <c r="D19" s="5">
-        <v>-5.9758970000000002E-2</v>
-      </c>
+      <c r="B15">
+        <v>6.2947867937791696E-2</v>
+      </c>
+      <c r="C15">
+        <v>8.9300012688301705E-2</v>
+      </c>
+      <c r="D15">
+        <v>-0.29429282333509499</v>
+      </c>
+      <c r="E15">
+        <v>1.9845195329604801E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>-0.40105126115307399</v>
+      </c>
+      <c r="C16">
+        <v>0.416683752495074</v>
+      </c>
+      <c r="D16">
+        <v>0.477353262909472</v>
+      </c>
+      <c r="E16">
+        <v>-0.56732773040525897</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0.83650837957900204</v>
+      </c>
+      <c r="C17">
+        <v>0.47976019635241002</v>
+      </c>
+      <c r="D17">
+        <v>0.23997636512686599</v>
+      </c>
+      <c r="E17">
+        <v>-5.4081402624009199E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Table 2.xlsx
+++ b/Table 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="880" windowWidth="20560" windowHeight="13820" tabRatio="500"/>
+    <workbookView xWindow="6020" yWindow="1720" windowWidth="16700" windowHeight="13820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Standard deviation</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>PC 1</t>
-  </si>
-  <si>
-    <t>PC 4</t>
   </si>
   <si>
     <r>
@@ -68,34 +65,40 @@
     </r>
   </si>
   <si>
-    <t>adjHL</t>
-  </si>
-  <si>
-    <t>adjHW</t>
-  </si>
-  <si>
-    <t>adjSNL</t>
-  </si>
-  <si>
-    <t>adjIND</t>
-  </si>
-  <si>
-    <t>adjED</t>
-  </si>
-  <si>
-    <t>adjFL</t>
-  </si>
-  <si>
-    <t>adjTBL</t>
-  </si>
-  <si>
-    <t>adjMTTL</t>
-  </si>
-  <si>
-    <t>adjFin3DW</t>
-  </si>
-  <si>
-    <t>Loadings:</t>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>SNL</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>TBL</t>
+  </si>
+  <si>
+    <t>MTTL</t>
+  </si>
+  <si>
+    <t>Fin3DW</t>
+  </si>
+  <si>
+    <t>LD 1</t>
+  </si>
+  <si>
+    <t>LD 2</t>
+  </si>
+  <si>
+    <t>Loadings</t>
   </si>
 </sst>
 </file>
@@ -177,12 +180,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -192,13 +194,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E17"/>
+      <selection activeCell="D10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -541,47 +548,43 @@
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="15" customFormat="1">
-      <c r="A3" s="14" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" s="13" customFormat="1">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>0.10214762251906701</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>8.5697363959815198E-2</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>4.56131794188053E-2</v>
       </c>
-      <c r="E3" s="15">
-        <v>3.4823839223270397E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -594,11 +597,8 @@
       <c r="D4">
         <v>8.7739999999999999E-2</v>
       </c>
-      <c r="E4">
-        <v>5.1139999999999998E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -611,205 +611,202 @@
       <c r="D5">
         <v>0.83743999999999996</v>
       </c>
-      <c r="E5">
-        <v>0.88858000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="15" customFormat="1">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:6" s="13" customFormat="1">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>1.04341368E-2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>7.3440381999999998E-3</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>2.0805620999999998E-3</v>
       </c>
-      <c r="E6" s="15">
-        <v>1.2126998000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="13" t="s">
+    </row>
+    <row r="7" spans="1:6" s="13" customFormat="1">
+      <c r="A7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="12">
+        <v>23.627016999999999</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-3.179656</v>
+      </c>
+      <c r="D7" s="14">
+        <v>-4.2718800000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="13" customFormat="1">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B8" s="12">
+        <v>2.004515</v>
+      </c>
+      <c r="C8" s="12">
+        <v>19.152643999999999</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6.381983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>-0.23215463122223301</v>
+      </c>
+      <c r="C11">
+        <v>0.31895557515244499</v>
+      </c>
+      <c r="D11">
+        <v>-7.9920553557438101E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>-0.23215463122223301</v>
-      </c>
-      <c r="C9">
-        <v>0.31895557515244499</v>
-      </c>
-      <c r="D9">
-        <v>-7.9920553557438101E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.11306793907014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B12">
+        <v>-0.160962695127494</v>
+      </c>
+      <c r="C12">
+        <v>0.33459569581998899</v>
+      </c>
+      <c r="D12">
+        <v>-1.4410692490899E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>-0.160962695127494</v>
-      </c>
-      <c r="C10">
-        <v>0.33459569581998899</v>
-      </c>
-      <c r="D10">
-        <v>-1.4410692490899E-2</v>
-      </c>
-      <c r="E10">
-        <v>-2.1008316181107801E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="B13">
+        <v>-1.23418067625705E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.13640366275383201</v>
+      </c>
+      <c r="D13">
+        <v>-0.26913888776085498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>-1.23418067625705E-3</v>
-      </c>
-      <c r="C11">
-        <v>0.13640366275383201</v>
-      </c>
-      <c r="D11">
-        <v>-0.26913888776085498</v>
-      </c>
-      <c r="E11">
-        <v>-0.300387076522598</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="B14">
+        <v>9.4830958037811792E-3</v>
+      </c>
+      <c r="C14">
+        <v>0.33224979241373997</v>
+      </c>
+      <c r="D14">
+        <v>-0.58270243562787805</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>9.4830958037811792E-3</v>
-      </c>
-      <c r="C12">
-        <v>0.33224979241373997</v>
-      </c>
-      <c r="D12">
-        <v>-0.58270243562787805</v>
-      </c>
-      <c r="E12">
-        <v>-9.2146668429806899E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B15">
+        <v>-0.220479010076125</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.42473123958148401</v>
+      </c>
+      <c r="D15">
+        <v>0.18707226414993899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>-0.220479010076125</v>
-      </c>
-      <c r="C13">
-        <v>0.42473123958148401</v>
-      </c>
-      <c r="D13">
-        <v>0.18707226414993899</v>
-      </c>
-      <c r="E13">
-        <v>0.74806378721428701</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="B16">
+        <v>-8.3318512534578004E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.255246672664388</v>
+      </c>
+      <c r="D16">
+        <v>-0.41757403697864898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>-8.3318512534578004E-2</v>
-      </c>
-      <c r="C14">
-        <v>0.255246672664388</v>
-      </c>
-      <c r="D14">
-        <v>-0.41757403697864898</v>
-      </c>
-      <c r="E14">
-        <v>-5.7202047564268201E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="B17">
+        <v>6.2947867937791696E-2</v>
+      </c>
+      <c r="C17">
+        <v>8.9300012688301705E-2</v>
+      </c>
+      <c r="D17">
+        <v>-0.29429282333509499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>6.2947867937791696E-2</v>
-      </c>
-      <c r="C15">
-        <v>8.9300012688301705E-2</v>
-      </c>
-      <c r="D15">
-        <v>-0.29429282333509499</v>
-      </c>
-      <c r="E15">
-        <v>1.9845195329604801E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="B18">
+        <v>-0.40105126115307399</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.416683752495074</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.477353262909472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>-0.40105126115307399</v>
-      </c>
-      <c r="C16">
-        <v>0.416683752495074</v>
-      </c>
-      <c r="D16">
-        <v>0.477353262909472</v>
-      </c>
-      <c r="E16">
-        <v>-0.56732773040525897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
+      <c r="B19" s="16">
         <v>0.83650837957900204</v>
       </c>
-      <c r="C17">
+      <c r="C19" s="16">
         <v>0.47976019635241002</v>
       </c>
-      <c r="D17">
+      <c r="D19" s="10">
         <v>0.23997636512686599</v>
       </c>
-      <c r="E17">
-        <v>-5.4081402624009199E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
